--- a/results/transcript/Camping in an Abandoned WWII Army Base in Remote Alaskan Rainforest.xlsx
+++ b/results/transcript/Camping in an Abandoned WWII Army Base in Remote Alaskan Rainforest.xlsx
@@ -2629,7 +2629,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>There's stellar Sea lions down there.</t>
+          <t>There's stellar.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2639,223 +2639,223 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>00:07:49</t>
+          <t>00:07:48</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Sea lions down there.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>00:07:51</t>
+          <t>00:07:48</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>00:07:52</t>
+          <t>00:07:49</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>That is insane.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>00:07:51</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>00:07:52</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>00:07:53</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>I think I could throw a rock from the top of this island all the way into the ocean.</t>
+          <t>That is insane.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>00:07:52</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>00:07:53</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>00:07:57</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>There's a reason why they call it Rugged Island.</t>
+          <t>I think I could throw a rock from the top of this island all the way into the ocean.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>00:07:53</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>00:07:57</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>00:08:00</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>We went up the nice part.</t>
+          <t>There's a reason why they call it Rugged Island.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>00:07:57</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>00:08:00</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>00:08:02</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>I'm not really sure where the fort is on this island, but the ocean's there, the ocean's there, and we run out of island that way, so it must be that way.</t>
+          <t>We went up the nice part.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>00:08:04</t>
+          <t>00:08:00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>00:08:14</t>
+          <t>00:08:02</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Look at these salmonberry bushes.</t>
+          <t>I'm not really sure where the fort is on this island, but the ocean's there, the ocean's there, and we run out of island that way, so it must be that way.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>00:08:17</t>
+          <t>00:08:04</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>00:08:19</t>
+          <t>00:08:14</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Come back here in a month or two and this place would be crawling with big juicy salmonberries.</t>
+          <t>Look at these salmonberry bushes.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>00:08:20</t>
+          <t>00:08:17</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>00:08:24</t>
+          <t>00:08:19</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>I'm not sure how long it's been since people were on this trail, but I've seen no footprints, no broken branches, no signs of life.</t>
+          <t>Come back here in a month or two and this place would be crawling with big juicy salmonberries.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>00:08:26</t>
+          <t>00:08:20</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>00:08:33</t>
+          <t>00:08:24</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Luckily, it's pretty hard to get lost.</t>
+          <t>I'm not sure how long it's been since people were on this trail, but I've seen no footprints, no broken branches, no signs of life.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>00:08:26</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>00:08:33</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>00:08:35</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>I can see the boundaries of the old road pretty clearly.</t>
+          <t>Luckily, it's pretty hard to get lost.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>00:08:33</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>00:08:35</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>00:08:39</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Oh, look at this, Tom.</t>
+          <t>I can see the boundaries of the old road pretty clearly.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>00:08:35</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>00:08:39</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>00:08:40</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>I see a structure.</t>
+          <t>Oh, look at this, Tom.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>00:08:40</t>
+          <t>00:08:39</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2867,46 +2867,46 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Yeah, there's a concrete bunker right over there.</t>
+          <t>I see a structure.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>00:08:41</t>
+          <t>00:08:40</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>00:08:43</t>
+          <t>00:08:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Hey, Tom, you got your flashlight?</t>
+          <t>Yeah, there's a concrete bunker right over there.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>00:08:41</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t>00:08:43</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>00:08:45</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Hey, Tom, you got your flashlight?</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>00:08:45</t>
+          <t>00:08:43</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2918,7 +2918,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>All right.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>00:08:46</t>
+          <t>00:08:45</t>
         </is>
       </c>
     </row>
@@ -2940,58 +2940,58 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>00:08:45</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>00:08:46</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>00:08:47</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>All right.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>00:08:48</t>
+          <t>00:08:46</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>00:08:49</t>
+          <t>00:08:47</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Oh, yeah.</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>00:08:50</t>
+          <t>00:08:48</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>00:08:51</t>
+          <t>00:08:49</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Little table.</t>
+          <t>Oh, yeah, Little table.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>00:08:51</t>
+          <t>00:08:50</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3547,7 +3547,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Yep, That's a pair of military boots.</t>
+          <t>Yep.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3557,138 +3557,138 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>00:10:41</t>
+          <t>00:10:39</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Look at that.</t>
+          <t>That's a pair of military boots.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>00:10:39</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>00:10:41</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>00:10:42</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>They're steel toed.</t>
+          <t>Look at that.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
+          <t>00:10:41</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
           <t>00:10:42</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>00:10:43</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Oh, check it out.</t>
+          <t>They're steel toed.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>00:10:44</t>
+          <t>00:10:42</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>00:10:45</t>
+          <t>00:10:43</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>This is the Coast Guard beacon.</t>
+          <t>Oh, check it out.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>00:10:44</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
           <t>00:10:45</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>00:10:46</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Oh, there's a ladder.</t>
+          <t>This is the Coast Guard beacon.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>00:10:48</t>
+          <t>00:10:45</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>00:10:50</t>
+          <t>00:10:46</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Yeah, I'll go first.</t>
+          <t>Oh, there's a ladder.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>00:10:48</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
           <t>00:10:50</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>00:10:51</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Yeah, it is.</t>
+          <t>Yeah, I'll go first.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>00:10:50</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
           <t>00:10:51</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>00:10:52</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sorry.</t>
+          <t>Yeah, it is.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>00:10:52</t>
+          <t>00:10:51</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3700,34 +3700,34 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Check this out.</t>
+          <t>Sorry.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>00:11:00</t>
+          <t>00:10:52</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>00:11:01</t>
+          <t>00:10:52</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>No way.</t>
+          <t>Check this out.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
+          <t>00:11:00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
           <t>00:11:01</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>00:11:02</t>
         </is>
       </c>
     </row>
@@ -3739,70 +3739,70 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>00:11:03</t>
+          <t>00:11:01</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>00:11:04</t>
+          <t>00:11:02</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>It's beautiful.</t>
+          <t>No way.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>00:11:06</t>
+          <t>00:11:03</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>00:11:07</t>
+          <t>00:11:04</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Isn't that pretty?</t>
+          <t>It's beautiful.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>00:11:06</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
           <t>00:11:07</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>00:11:08</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Oh, dang.</t>
+          <t>Isn't that pretty?</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>00:11:10</t>
+          <t>00:11:07</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>00:11:10</t>
+          <t>00:11:08</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>There's like a what A Fabulous spot for an observation post.</t>
+          <t>Oh, dang.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3812,563 +3812,563 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>00:11:14</t>
+          <t>00:11:10</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>The concrete for that is gone.</t>
+          <t>There's like a what A Fabulous spot for an observation post.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>00:11:17</t>
+          <t>00:11:10</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>00:11:19</t>
+          <t>00:11:14</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Oh, that's just hanging out over the cliff.</t>
+          <t>The concrete for that is gone.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>00:11:17</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
           <t>00:11:19</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>00:11:22</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Damn.</t>
+          <t>Oh, that's just hanging out over the cliff.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>00:11:19</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
           <t>00:11:22</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>00:11:23</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>I wonder what other stuff we want to not realize that higher up though, some sort of tin structure.</t>
+          <t>Damn.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>00:11:27</t>
+          <t>00:11:22</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>00:11:37</t>
+          <t>00:11:23</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Well, this trail keeps on going.</t>
+          <t>I wonder what other stuff we want to not realize that higher up though, some sort of tin structure.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>00:11:38</t>
+          <t>00:11:27</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>00:11:40</t>
+          <t>00:11:37</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Oh, look at this.</t>
+          <t>Well, this trail keeps on going.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>00:11:38</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
           <t>00:11:40</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>00:11:43</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>This is an old military cot.</t>
+          <t>Oh, look at this.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>00:11:44</t>
+          <t>00:11:40</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>00:11:46</t>
+          <t>00:11:43</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Yeah, this is.</t>
+          <t>This is an old military cot.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>00:11:47</t>
+          <t>00:11:44</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>00:11:48</t>
+          <t>00:11:46</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>This is the piece to a military bed.</t>
+          <t>Yeah, this is.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
+          <t>00:11:47</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
           <t>00:11:48</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>00:11:51</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Oh, it's so hard to see anything in these woods.</t>
+          <t>This is the piece to a military bed.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
+          <t>00:11:48</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
           <t>00:11:51</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>00:11:53</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>We could be walking past dozens of these buildings and not even know it.</t>
+          <t>Oh, it's so hard to see anything in these woods.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
+          <t>00:11:51</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
           <t>00:11:53</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>00:11:56</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Trail has pottery right there.</t>
+          <t>We could be walking past dozens of these buildings and not even know it.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>00:11:58</t>
+          <t>00:11:53</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>00:12:00</t>
+          <t>00:11:56</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Oh, you know what this is?</t>
+          <t>Trail has pottery right there.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>00:12:01</t>
+          <t>00:11:58</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>00:12:02</t>
+          <t>00:12:00</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>This is a washtub.</t>
+          <t>Oh, you know what this is?</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
+          <t>00:12:01</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
           <t>00:12:02</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>00:12:03</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>This is a washtub.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>00:12:05</t>
+          <t>00:12:02</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>00:12:05</t>
+          <t>00:12:03</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Yeah, it's a bowl.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>00:12:06</t>
+          <t>00:12:05</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>00:12:07</t>
+          <t>00:12:05</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>I think that's where they did their dishes.</t>
+          <t>Yeah, it's a bowl.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
+          <t>00:12:06</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
           <t>00:12:07</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>00:12:09</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Yeah, it could have been.</t>
+          <t>I think that's where they did their dishes.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>00:12:07</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
           <t>00:12:09</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>00:12:10</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Could have been where they did their dishes.</t>
+          <t>Yeah, it could have been.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>00:12:11</t>
+          <t>00:12:09</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>00:12:12</t>
+          <t>00:12:10</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Look at that.</t>
+          <t>Could have been where they did their dishes.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>00:12:11</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
           <t>00:12:12</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>00:12:13</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Yeah, there's a whole building.</t>
+          <t>Look at that.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>00:12:15</t>
+          <t>00:12:12</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>00:12:17</t>
+          <t>00:12:13</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>You can see almost all of these trees have grown since the base was here.</t>
+          <t>Yeah, there's a whole building.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>00:12:19</t>
+          <t>00:12:15</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>00:12:23</t>
+          <t>00:12:17</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>We found some cool stuff, Tom, but we haven't found the artillery placement.</t>
+          <t>You can see almost all of these trees have grown since the base was here.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>00:12:26</t>
+          <t>00:12:19</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>00:12:30</t>
+          <t>00:12:23</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Whole point of these military bases was to put an artillery piece on top of these islands and.</t>
+          <t>We found some cool stuff, Tom, but we haven't found the artillery placement.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
+          <t>00:12:26</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
           <t>00:12:30</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>00:12:35</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>And shoot enemy ships that were trying to enter the bay.</t>
+          <t>Whole point of these military bases was to put an artillery piece on top of these islands and.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>00:12:30</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
           <t>00:12:35</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>00:12:38</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Check it out.</t>
+          <t>And shoot enemy ships that were trying to enter the bay.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
+          <t>00:12:35</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
           <t>00:12:38</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>00:12:39</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>There's all these.</t>
+          <t>Check it out.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
+          <t>00:12:38</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
           <t>00:12:39</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>00:12:40</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Look at all these wires.</t>
+          <t>There's all these.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
+          <t>00:12:39</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
           <t>00:12:40</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>00:12:42</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Well, they moved them out.</t>
+          <t>Look at all these wires.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
+          <t>00:12:40</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
           <t>00:12:42</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>00:12:43</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>So there must be something up there.</t>
+          <t>Well, they moved them out.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>00:12:44</t>
+          <t>00:12:42</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>00:12:45</t>
+          <t>00:12:43</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>If we follow the wire, this road off to the roof.</t>
+          <t>So there must be something up there.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
+          <t>00:12:44</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
           <t>00:12:45</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>00:12:53</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>There's a lot of wood here.</t>
+          <t>If we follow the wire, this road off to the roof.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>00:12:56</t>
+          <t>00:12:45</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>00:12:58</t>
+          <t>00:12:53</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Rotten wood.</t>
+          <t>There's a lot of wood here.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>00:12:58</t>
+          <t>00:12:56</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4380,7 +4380,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>I think we're standing on the collapsed roof of a wooden structure.</t>
+          <t>Rotten wood.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4390,82 +4390,82 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>00:13:02</t>
+          <t>00:12:58</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>And that concrete is the foundation.</t>
+          <t>I think we're standing on the collapsed roof of a wooden structure.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
+          <t>00:12:58</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
           <t>00:13:02</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>00:13:04</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>And this right here, this is the roof.</t>
+          <t>And that concrete is the foundation.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
+          <t>00:13:02</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
           <t>00:13:04</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>00:13:06</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>What's left of the roof.</t>
+          <t>And this right here, this is the roof.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
+          <t>00:13:04</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
           <t>00:13:06</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>00:13:07</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Careful.</t>
+          <t>What's left of the roof.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>00:13:11</t>
+          <t>00:13:06</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>00:13:11</t>
+          <t>00:13:07</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>This is deep.</t>
+          <t>Careful.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4475,87 +4475,87 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>00:13:12</t>
+          <t>00:13:11</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Oh, you fell.</t>
+          <t>This is deep.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>00:13:11</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
           <t>00:13:12</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>00:13:13</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>All right.</t>
+          <t>Oh, you fell.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>00:13:16</t>
+          <t>00:13:12</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>00:13:16</t>
+          <t>00:13:13</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Look at this, Tom.</t>
+          <t>All right.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>00:13:19</t>
+          <t>00:13:16</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>00:13:20</t>
+          <t>00:13:16</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>This is a insulator for power lines.</t>
+          <t>Look at this, Tom.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>00:13:21</t>
+          <t>00:13:19</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>00:13:24</t>
+          <t>00:13:20</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>This is a insulator for power lines.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>00:13:24</t>
+          <t>00:13:21</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4567,7 +4567,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>So there's power cables.</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4577,70 +4577,70 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>00:13:25</t>
+          <t>00:13:24</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>They're going further up the hill.</t>
+          <t>So there's power cables.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
+          <t>00:13:24</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
           <t>00:13:25</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>00:13:27</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>There's more up there.</t>
+          <t>They're going further up the hill.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
+          <t>00:13:25</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
           <t>00:13:27</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>00:13:28</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Got a little M.</t>
+          <t>There's more up there.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>00:13:30</t>
+          <t>00:13:27</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>00:13:31</t>
+          <t>00:13:28</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>M brake.</t>
+          <t>Got a little M.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>00:13:31</t>
+          <t>00:13:30</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4652,46 +4652,46 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Dead tax.</t>
+          <t>M brake.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>00:13:33</t>
+          <t>00:13:31</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>00:13:34</t>
+          <t>00:13:31</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>Dead tax.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>00:13:38</t>
+          <t>00:13:33</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>00:13:39</t>
+          <t>00:13:34</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Tov.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>00:13:39</t>
+          <t>00:13:38</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4703,92 +4703,92 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>That's a tread to like a bulldozer or a tank right there.</t>
+          <t>Tov.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>00:13:40</t>
+          <t>00:13:39</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>00:13:42</t>
+          <t>00:13:39</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>There's a big open flat spot.</t>
+          <t>That's a tread to like a bulldozer or a tank right there.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>00:13:46</t>
+          <t>00:13:40</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>00:13:47</t>
+          <t>00:13:42</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>There isn't a single flat spot on this island that isn't man made.</t>
+          <t>There's a big open flat spot.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
+          <t>00:13:46</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
           <t>00:13:47</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>00:13:51</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Oh, look at that.</t>
+          <t>There isn't a single flat spot on this island that isn't man made.</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>00:13:53</t>
+          <t>00:13:47</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>00:13:54</t>
+          <t>00:13:51</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>This is it.</t>
+          <t>Oh, look at that.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>00:13:55</t>
+          <t>00:13:53</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>00:13:55</t>
+          <t>00:13:54</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>I think we found it.</t>
+          <t>This is it.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4798,269 +4798,269 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>00:13:57</t>
+          <t>00:13:55</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Yay.</t>
+          <t>I think we found it.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>00:13:58</t>
+          <t>00:13:55</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>00:13:59</t>
+          <t>00:13:57</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Here, grab my flashlight.</t>
+          <t>Yay.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
+          <t>00:13:58</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
           <t>00:13:59</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>00:14:00</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Oh, look at this, Tom.</t>
+          <t>Here, grab my flashlight.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
+          <t>00:13:59</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
           <t>00:14:00</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>00:14:01</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>That is pretty cool.</t>
+          <t>Oh, look at this, Tom.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>00:14:04</t>
+          <t>00:14:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>00:14:05</t>
+          <t>00:14:01</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Is it?</t>
+          <t>That is pretty cool.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
+          <t>00:14:04</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
           <t>00:14:05</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>00:14:06</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>Is it?</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
+          <t>00:14:05</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
           <t>00:14:06</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>00:14:07</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>It's like the latches to the door.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
+          <t>00:14:06</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
           <t>00:14:07</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>00:14:08</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Thomas, you ready to go explore?</t>
+          <t>It's like the latches to the door.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>00:14:10</t>
+          <t>00:14:07</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>00:14:11</t>
+          <t>00:14:08</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Thomas, you ready to go explore?</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
+          <t>00:14:10</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
           <t>00:14:11</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>00:14:12</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Let's go inside.</t>
+          <t>Yes.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
+          <t>00:14:11</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
           <t>00:14:12</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>00:14:13</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>See a used 1943.</t>
+          <t>Let's go inside.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
+          <t>00:14:12</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
           <t>00:14:13</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>00:14:16</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>So that's two years before the end of World War II.</t>
+          <t>See a used 1943.</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>00:14:17</t>
+          <t>00:14:13</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>00:14:19</t>
+          <t>00:14:16</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>All right, got your light?</t>
+          <t>So that's two years before the end of World War II.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>00:14:20</t>
+          <t>00:14:17</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>00:14:22</t>
+          <t>00:14:19</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>All right, let's go inside.</t>
+          <t>All right, got your light?</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>00:14:23</t>
+          <t>00:14:20</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>00:14:25</t>
+          <t>00:14:22</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Watch out.</t>
+          <t>All right, let's go inside.</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>00:14:28</t>
+          <t>00:14:23</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>00:14:28</t>
+          <t>00:14:25</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Oh, there's booby traps here.</t>
+          <t>Watch out.</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5070,65 +5070,65 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>00:14:30</t>
+          <t>00:14:28</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Yeah, here's another.</t>
+          <t>Oh, there's booby traps here.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>00:14:31</t>
+          <t>00:14:28</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>00:14:32</t>
+          <t>00:14:30</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Oh, there's like two dead foxes down here.</t>
+          <t>Yeah, here's another.</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>00:14:36</t>
+          <t>00:14:31</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>00:14:38</t>
+          <t>00:14:32</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Oh, there's like two dead foxes down here.</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>00:14:39</t>
+          <t>00:14:36</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>00:14:39</t>
+          <t>00:14:38</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>I wonder if they just fell down there and got trapped.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5138,104 +5138,104 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>00:14:41</t>
+          <t>00:14:39</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>What do you think that is how my light.</t>
+          <t>I wonder if they just fell down there and got trapped.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
+          <t>00:14:39</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
           <t>00:14:41</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>00:14:44</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>I have to hold my light down.</t>
+          <t>What do you think that is how my light.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
+          <t>00:14:41</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
           <t>00:14:44</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>00:14:45</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Okay, that's it.</t>
+          <t>I have to hold my light down.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>00:14:46</t>
+          <t>00:14:44</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>00:14:48</t>
+          <t>00:14:45</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Could be even.</t>
+          <t>Okay, that's it.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
+          <t>00:14:46</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
           <t>00:14:48</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>00:14:49</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Oh, here's the big room.</t>
+          <t>Could be even.</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
+          <t>00:14:48</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
           <t>00:14:49</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>00:14:51</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Oh, here's the big room.</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>00:14:51</t>
+          <t>00:14:49</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5247,7 +5247,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>There's another door in here.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5257,274 +5257,274 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>00:14:52</t>
+          <t>00:14:51</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Hey, this place is big.</t>
+          <t>There's another door in here.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>00:14:53</t>
+          <t>00:14:51</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>00:14:54</t>
+          <t>00:14:52</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Dylan, fall down there.</t>
+          <t>Hey, this place is big.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>00:14:55</t>
+          <t>00:14:53</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>00:14:56</t>
+          <t>00:14:54</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>There's a basement.</t>
+          <t>Dylan, fall down there.</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
+          <t>00:14:55</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
           <t>00:14:56</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>00:14:57</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Oh, look at that.</t>
+          <t>There's a basement.</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>00:14:58</t>
+          <t>00:14:56</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>00:14:59</t>
+          <t>00:14:57</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Oh, there's stairs.</t>
+          <t>Oh, look at that.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
+          <t>00:14:58</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
           <t>00:14:59</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>00:15:00</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>This place is getting cool.</t>
+          <t>Oh, there's stairs.</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>00:15:02</t>
+          <t>00:14:59</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>00:15:04</t>
+          <t>00:15:00</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>I think these are sheets of, like, asbestos.</t>
+          <t>This place is getting cool.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>00:15:07</t>
+          <t>00:15:02</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>00:15:09</t>
+          <t>00:15:04</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>It's a kind of a fireproof insulation.</t>
+          <t>I think these are sheets of, like, asbestos.</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
+          <t>00:15:07</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
           <t>00:15:09</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>00:15:11</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>But it's toxic, Gives you cancer.</t>
+          <t>It's a kind of a fireproof insulation.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
+          <t>00:15:09</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
           <t>00:15:11</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>00:15:13</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>There's like, a big engine room, and there's tons of stuff in there.</t>
+          <t>But it's toxic, Gives you cancer.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>00:15:16</t>
+          <t>00:15:11</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>00:15:19</t>
+          <t>00:15:13</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>There's like, a big engine room, and there's tons of stuff in there.</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>00:15:23</t>
+          <t>00:15:16</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>00:15:24</t>
+          <t>00:15:19</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>This is like a giant drafting table or something.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>00:15:25</t>
+          <t>00:15:23</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>00:15:27</t>
+          <t>00:15:24</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>This is a good.</t>
+          <t>This is like a giant drafting table or something.</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>00:15:28</t>
+          <t>00:15:25</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>00:15:29</t>
+          <t>00:15:27</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>That looks structural right there.</t>
+          <t>This is a good.</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
+          <t>00:15:28</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
           <t>00:15:29</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>00:15:31</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Was that pretty cool?</t>
+          <t>That looks structural right there.</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>00:15:47</t>
+          <t>00:15:29</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>00:15:48</t>
+          <t>00:15:31</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Was that pretty cool?</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>00:15:48</t>
+          <t>00:15:47</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5536,7 +5536,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Was that worth the hike?</t>
+          <t>Yes.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -5546,48 +5546,48 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>00:15:49</t>
+          <t>00:15:48</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Was that worth the hike?</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>00:15:50</t>
+          <t>00:15:48</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>00:15:50</t>
+          <t>00:15:49</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Yes.</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>00:15:52</t>
+          <t>00:15:50</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>00:15:52</t>
+          <t>00:15:50</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>You know what that is, Tommy?</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -5597,529 +5597,529 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>00:15:53</t>
+          <t>00:15:52</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>That looks like a cesspit.</t>
+          <t>You know what that is, Tommy?</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>00:15:54</t>
+          <t>00:15:52</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>00:15:55</t>
+          <t>00:15:53</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>That bust is through.</t>
+          <t>That looks like a cesspit.</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>00:15:56</t>
+          <t>00:15:54</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>00:15:58</t>
+          <t>00:15:55</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Tom, I found it.</t>
+          <t>That bust is through.</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>00:16:02</t>
+          <t>00:15:56</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>00:16:03</t>
+          <t>00:15:58</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Come here.</t>
+          <t>Tom, I found it.</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
+          <t>00:16:02</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
           <t>00:16:03</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>00:16:04</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>No way.</t>
+          <t>Come here.</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>00:16:05</t>
+          <t>00:16:03</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>00:16:06</t>
+          <t>00:16:04</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>No way.</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
+          <t>00:16:05</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
           <t>00:16:06</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>00:16:07</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>See how it's round, Tom?</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
+          <t>00:16:06</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
           <t>00:16:07</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>00:16:08</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>That's where the big turret spinny thing goes.</t>
+          <t>See how it's round, Tom?</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
+          <t>00:16:07</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
           <t>00:16:08</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>00:16:11</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>That's where the big turret spinny thing goes.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
+          <t>00:16:08</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
           <t>00:16:11</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>00:16:12</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>They put the gun in the middle, and then they can turn.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
+          <t>00:16:11</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
           <t>00:16:12</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>00:16:14</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>They can spin it around any direction, and they could blast any enemy ship trying to come into resurrection bay.</t>
+          <t>They put the gun in the middle, and then they can turn.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
+          <t>00:16:12</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
           <t>00:16:14</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>00:16:19</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>So right now we're climbing on top of the big bunker.</t>
+          <t>They can spin it around any direction, and they could blast any enemy ship trying to come into resurrection bay.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>00:16:22</t>
+          <t>00:16:14</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>00:16:24</t>
+          <t>00:16:19</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>We're gonna see what there is to see up here.</t>
+          <t>So right now we're climbing on top of the big bunker.</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>00:16:25</t>
+          <t>00:16:22</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>00:16:27</t>
+          <t>00:16:24</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Can't believe all these trees are growing on top of that concrete bunker.</t>
+          <t>We're gonna see what there is to see up here.</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
+          <t>00:16:25</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
           <t>00:16:27</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>00:16:31</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>There's something up here.</t>
+          <t>Can't believe all these trees are growing on top of that concrete bunker.</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>00:16:32</t>
+          <t>00:16:27</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>00:16:33</t>
+          <t>00:16:31</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>What the heck?</t>
+          <t>There's something up here.</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
+          <t>00:16:32</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
           <t>00:16:33</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>00:16:34</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Oh, look at this.</t>
+          <t>What the heck?</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
+          <t>00:16:33</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
           <t>00:16:34</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>00:16:37</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Look at this, Tom.</t>
+          <t>Oh, look at this.</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>00:16:42</t>
+          <t>00:16:34</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>00:16:43</t>
+          <t>00:16:37</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>It's a machine gun bunker.</t>
+          <t>Look at this, Tom.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
+          <t>00:16:42</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
           <t>00:16:43</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>00:16:45</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Got the bulletproof plates on rails.</t>
+          <t>It's a machine gun bunker.</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>00:16:46</t>
+          <t>00:16:43</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>00:16:47</t>
+          <t>00:16:45</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>And you can slide them over the entrances to protect you.</t>
+          <t>Got the bulletproof plates on rails.</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
+          <t>00:16:46</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
           <t>00:16:47</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>00:16:50</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>This pillbox is on the roof of that complex.</t>
+          <t>And you can slide them over the entrances to protect you.</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
+          <t>00:16:47</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
           <t>00:16:50</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>00:16:53</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>We explored that.</t>
+          <t>This pillbox is on the roof of that complex.</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
+          <t>00:16:50</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
           <t>00:16:53</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>00:16:55</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Looks like it's in good shape.</t>
+          <t>We explored that.</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
+          <t>00:16:53</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
           <t>00:16:55</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>00:16:56</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>It's solid wood.</t>
+          <t>Looks like it's in good shape.</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
+          <t>00:16:55</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
           <t>00:16:56</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>00:16:57</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Got the wooden shutters so that you can close it when it's cold.</t>
+          <t>It's solid wood.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>00:17:01</t>
+          <t>00:16:56</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>00:17:04</t>
+          <t>00:16:57</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Well, Dan, you can just.</t>
+          <t>Got the wooden shutters so that you can close it when it's cold.</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>00:17:09</t>
+          <t>00:17:01</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>00:17:10</t>
+          <t>00:17:04</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>I wish this was like.</t>
+          <t>Well, Dan, you can just.</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>00:17:11</t>
+          <t>00:17:09</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>00:17:12</t>
+          <t>00:17:10</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>I wish this was like.</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>00:17:15</t>
+          <t>00:17:11</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>00:17:16</t>
+          <t>00:17:12</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Holy mackerel.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>00:17:17</t>
+          <t>00:17:15</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>00:17:18</t>
+          <t>00:17:16</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Look at.</t>
+          <t>Holy mackerel.</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>00:17:18</t>
+          <t>00:17:17</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6131,7 +6131,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Look at the size of this door.</t>
+          <t>Look at.</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -6141,325 +6141,325 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>00:17:19</t>
+          <t>00:17:18</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>This is just a big room.</t>
+          <t>Look at the size of this door.</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>00:17:24</t>
+          <t>00:17:18</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>00:17:25</t>
+          <t>00:17:19</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>But this must be where they stored the artillery shells.</t>
+          <t>This is just a big room.</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>00:17:26</t>
+          <t>00:17:24</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>00:17:29</t>
+          <t>00:17:25</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Yeah, because you wouldn't want to store these where all the people were.</t>
+          <t>But this must be where they stored the artillery shells.</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
+          <t>00:17:26</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
           <t>00:17:29</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>00:17:32</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Because if it blows up, you don't want it to wipe out the whole base.</t>
+          <t>Yeah, because you wouldn't want to store these where all the people were.</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
+          <t>00:17:29</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
           <t>00:17:32</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>00:17:37</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Seems like there's building and bunkers all over the place, so I'm sure we've missed a few.</t>
+          <t>Because if it blows up, you don't want it to wipe out the whole base.</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
+          <t>00:17:32</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
           <t>00:17:37</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>00:17:41</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>But we've searched all the trail and road that we can.</t>
+          <t>Seems like there's building and bunkers all over the place, so I'm sure we've missed a few.</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
+          <t>00:17:37</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
           <t>00:17:41</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>00:17:43</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Tommy's fingers are getting cold, so I think it's time to make camp.</t>
+          <t>But we've searched all the trail and road that we can.</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>00:17:44</t>
+          <t>00:17:41</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>00:17:48</t>
+          <t>00:17:43</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Well, this was definitely the driest and cleanest of all the bunkers.</t>
+          <t>Tommy's fingers are getting cold, so I think it's time to make camp.</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>00:17:55</t>
+          <t>00:17:44</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>00:17:59</t>
+          <t>00:17:48</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>I think it was a good place to camp.</t>
+          <t>Well, this was definitely the driest and cleanest of all the bunkers.</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
+          <t>00:17:55</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
           <t>00:17:59</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>00:18:01</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>It is so nice not to be rained on.</t>
+          <t>I think it is a good place to camp.</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>00:18:02</t>
+          <t>00:17:59</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>00:18:04</t>
+          <t>00:18:01</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Let's get this stuff out of the way unless the wound.</t>
+          <t>It is so nice not to be rained on.</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>00:18:07</t>
+          <t>00:18:02</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>00:18:17</t>
+          <t>00:18:04</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Oh, my bag is a bit wet.</t>
+          <t>Let's get this stuff out of the way unless the wound.</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>00:18:19</t>
+          <t>00:18:07</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>00:18:21</t>
+          <t>00:18:17</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>My backpack is supposed to be waterproof, but it's getting pretty old and has some holes in it.</t>
+          <t>Oh, my bag is a bit wet.</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>00:18:24</t>
+          <t>00:18:19</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>00:18:28</t>
+          <t>00:18:21</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>And I got a lot of water in my bag, I think.</t>
+          <t>My backpack is supposed to be waterproof, but it's getting pretty old and has some holes in it.</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
+          <t>00:18:24</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
           <t>00:18:28</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>00:18:31</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Luckily, the stuff sack for my sleeping bag stopped most the water.</t>
+          <t>And I got a lot of water in my bag, I think.</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
+          <t>00:18:28</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
           <t>00:18:31</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>00:18:34</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Pillow's a little wet on one side, but not bad.</t>
+          <t>Luckily, the stuff sack for my sleeping bag stopped most the water.</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>00:18:35</t>
+          <t>00:18:31</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>00:18:38</t>
+          <t>00:18:34</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Lay down.</t>
+          <t>Pillow's a little wet on one side, but not bad.</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>00:18:48</t>
+          <t>00:18:35</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>00:18:49</t>
+          <t>00:18:38</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Hey, Tom, does that feel better?</t>
+          <t>Lay down.</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>00:18:50</t>
+          <t>00:18:48</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>00:18:52</t>
+          <t>00:18:49</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Yeah.</t>
+          <t>Hey, Tom, does that feel better?</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>00:18:52</t>
+          <t>00:18:50</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6471,24 +6471,24 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>Yeah.</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>00:18:53</t>
+          <t>00:18:52</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>00:18:53</t>
+          <t>00:18:52</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>I'm going to get you some hot chocolate, too.</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -6498,19 +6498,19 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>00:18:55</t>
+          <t>00:18:53</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Okay.</t>
+          <t>I'm going to get you some hot chocolate, too.</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>00:18:55</t>
+          <t>00:18:53</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6522,607 +6522,607 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>All right, both of us out, huh?</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>00:18:56</t>
+          <t>00:18:55</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>00:19:02</t>
+          <t>00:18:55</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>We're fun.</t>
+          <t>All right, both of us out, huh?</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
+          <t>00:18:56</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
           <t>00:19:02</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>00:19:03</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Tommy's having hot chocolate.</t>
+          <t>We're fun.</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>00:19:06</t>
+          <t>00:19:02</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>00:19:08</t>
+          <t>00:19:03</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>I'm going to have some hot tang.</t>
+          <t>Tommy's having hot chocolate.</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
+          <t>00:19:06</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
           <t>00:19:08</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>00:19:10</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>For those of you that were alive in the 80s, you might remember that powdered drink mix tang.</t>
+          <t>I'm going to have some hot tang.</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>00:19:19</t>
+          <t>00:19:08</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>00:19:24</t>
+          <t>00:19:10</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Well, it's still alive and well here in Alaska, and we like to drink it hot.</t>
+          <t>For those of you that were alive in the 80s, you might remember that powdered drink, mixed tang.</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
+          <t>00:19:19</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
           <t>00:19:24</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>00:19:27</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Got to put some boiling water in a bottle here.</t>
+          <t>Well, it's still alive and well here in Alaska, and we like to drink it hot.</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>00:19:32</t>
+          <t>00:19:24</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>00:19:34</t>
+          <t>00:19:27</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Did you feel that?</t>
+          <t>Got to put some boiling water in a bottle here.</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>00:19:35</t>
+          <t>00:19:32</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>00:19:36</t>
+          <t>00:19:34</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Put that in your bag.</t>
+          <t>Did you feel that?</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>00:19:37</t>
+          <t>00:19:35</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>00:19:38</t>
+          <t>00:19:36</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Does that feel good?</t>
+          <t>Put that in your bag.</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
+          <t>00:19:37</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
           <t>00:19:38</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>00:19:39</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Yep.</t>
+          <t>Does that feel good?</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>00:19:40</t>
+          <t>00:19:38</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>00:19:41</t>
+          <t>00:19:39</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>There's a hole in my rape pants right here, and this whole knee is soaked.</t>
+          <t>Yep.</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>00:19:43</t>
+          <t>00:19:40</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>00:19:47</t>
+          <t>00:19:41</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Got some bread, flour and yeast.</t>
+          <t>There's a hole in my rape pants right here, and this whole knee is soaked.</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
+          <t>00:19:43</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
           <t>00:19:47</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>00:19:49</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Just seal that up, let it ferment.</t>
+          <t>Got some bread, flour and yeast.</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>00:19:51</t>
+          <t>00:19:47</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>00:19:53</t>
+          <t>00:19:49</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>All right, Tom, let's see about dinner here.</t>
+          <t>Just seal that up, let it ferment.</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>00:19:54</t>
+          <t>00:19:51</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>00:19:56</t>
+          <t>00:19:53</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>You want creamy pasta, chicken beef Stewart.</t>
+          <t>All right, Tom, let's see about dinner here.</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>00:19:57</t>
+          <t>00:19:54</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>00:20:15</t>
+          <t>00:19:56</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>There we go.</t>
+          <t>You want creamy pasta, chicken beef Stewart.</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>00:20:24</t>
+          <t>00:19:57</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>00:20:25</t>
+          <t>00:20:15</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Nice little bit of fry bread.</t>
+          <t>There we go.</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
+          <t>00:20:24</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
           <t>00:20:25</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>00:20:26</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Well, typically I like to eat this with some honey or butter or jam, but I forgot to bring all that, so we're gonna put a little powdered tang on it and see what happens.</t>
+          <t>Nice little bit of fry bread.</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
+          <t>00:20:25</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
           <t>00:20:26</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>00:20:34</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>It's a little weird with the tang on it, but it's not bad.</t>
+          <t>Well, typically I like to eat this with some honey or butter or jam, but I forgot to bring all that, so we're gonna put a little powdered tang on it and see what happens.</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>00:20:39</t>
+          <t>00:20:26</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>00:20:42</t>
+          <t>00:20:34</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>You like it?</t>
+          <t>It's a little weird with the tang on it, but it's not bad.</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
+          <t>00:20:39</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
           <t>00:20:42</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>00:20:43</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Warm bread's hard to beat, isn't it?</t>
+          <t>You like it?</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>00:20:44</t>
+          <t>00:20:42</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>00:20:45</t>
+          <t>00:20:43</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Good morning, Tom.</t>
+          <t>Warm bread's hard to beat, isn't it?</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>00:21:05</t>
+          <t>00:20:44</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>00:21:06</t>
+          <t>00:20:45</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>So what do you think of your first night sleeping in a World War II bunker?</t>
+          <t>Good morning, Tom.</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>00:21:07</t>
+          <t>00:21:05</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>00:21:10</t>
+          <t>00:21:06</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>It was awesome.</t>
+          <t>So what do you think of your first night sleeping in a World War II bunker?</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>00:21:11</t>
+          <t>00:21:07</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>00:21:12</t>
+          <t>00:21:10</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>All right, it's time to get up.</t>
+          <t>It was awesome.</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
+          <t>00:21:11</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
           <t>00:21:12</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>00:21:15</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Yeah, that's what I.</t>
+          <t>All right, it's time to get up.</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>00:21:40</t>
+          <t>00:21:12</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>00:21:41</t>
+          <t>00:21:15</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>I think it's time to get up and start packing.</t>
+          <t>Yeah, that's what I.</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>00:21:46</t>
+          <t>00:21:40</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>00:21:48</t>
+          <t>00:21:41</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Look at this.</t>
+          <t>I think it's time to get up and start packing.</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>00:22:02</t>
+          <t>00:21:46</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>00:22:03</t>
+          <t>00:21:48</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>I actually got a little bit of a view.</t>
+          <t>Look at this.</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
+          <t>00:22:02</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
           <t>00:22:03</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>00:22:05</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Nice.</t>
+          <t>I actually got a little bit of a view.</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>00:22:06</t>
+          <t>00:22:03</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>00:22:07</t>
+          <t>00:22:05</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Now we just gotta wait for the water taxi to come pick us up.</t>
+          <t>Nice.</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>00:22:15</t>
+          <t>00:22:06</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>00:22:17</t>
+          <t>00:22:07</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>It's nice to get out of that brush.</t>
+          <t>Now we just gotta wait for the water taxi to come pick us up.</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
+          <t>00:22:15</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
           <t>00:22:17</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>00:22:19</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>I can finally take my rain gear off and start to dry out a little bit.</t>
+          <t>It's nice to get out of that brush.</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
+          <t>00:22:17</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
           <t>00:22:19</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>00:22:22</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Even though it's not raining.</t>
+          <t>I can finally take my rain gear off and start to dry out a little bit.</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
+          <t>00:22:19</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
           <t>00:22:22</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>00:22:24</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>That vegetation is so wet that walking through it gets you soaked.</t>
+          <t>Even though it's not raining, that vegetation is so wet that walking through it gets you soaked.</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>00:22:24</t>
+          <t>00:22:22</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7202,7 +7202,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>How's your day, Ben?</t>
+          <t>How's your day bed?</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
